--- a/Examples/Economics.xlsx
+++ b/Examples/Economics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23519"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\backup\xlquote\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\others\Data\XLQuote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C100F5-F7C7-4D9A-8F62-9FEB79F4884C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C58307-E6BD-4AE1-BD1D-6FCB7D1DF338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Economics" sheetId="1" r:id="rId1"/>
@@ -24,21 +24,41 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>Symbol</t>
   </si>
   <si>
@@ -166,17 +186,30 @@
   </si>
   <si>
     <t>Case Shiller 20</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>HOUUS</t>
+  </si>
+  <si>
+    <t>Econdb</t>
+  </si>
+  <si>
+    <t>House Price Index</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode=";;;&quot;Value&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -216,12 +249,13 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -562,354 +596,375 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="24.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.59765625" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="14.55" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.55" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2">
-        <f>(1+_xll.xlquoteEconomics(D2,"pch",0)/100)^4-1</f>
-        <v>0.33067983212392504</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" cm="1">
+        <f t="array" ref="B2">(1+_xll.xlquoteEconomics(D2,$B$1,0,E2)/_xll.xlquoteEconomics(D2,$B$1,-1,E2)-1)^4-1</f>
+        <v>6.9869910447080352E-2</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.55" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <f>_xll.xlquoteEconomics(D3,"pc1",0)/100</f>
-        <v>-2.9163600000000001E-2</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" cm="1">
+        <f t="array" ref="B3">_xll.xlquoteEconomics(D3,$B$1,0,E3)/_xll.xlquoteEconomics(D3,$B$1,-4,E3)-1</f>
+        <v>5.5562997388396207E-2</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.55" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1">
-        <f>_xll.xlquoteEconomics(D4,"chg",0)*1000</f>
-        <v>307277</v>
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" cm="1">
+        <f t="array" ref="B4">(_xll.xlquoteEconomics(D4,$B$1,0,E4)-_xll.xlquoteEconomics(D4,$B$1,-1,E4))*1000</f>
+        <v>474559.00000000838</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.55" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <f>_xll.xlquoteEconomics(D5,"chg",0)*1000</f>
-        <v>638000</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" cm="1">
+        <f t="array" ref="B5">(_xll.xlquoteEconomics(D5,$B$1,0,E5)-_xll.xlquoteEconomics(D5,$B$1,-1,E5))*1000</f>
+        <v>678000</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.55" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3">
-        <f>_xll.xlquoteEconomics(D6,"lin",0)/100</f>
-        <v>6.9000000000000006E-2</v>
+        <f t="array" ref="B6">_xll.xlquoteEconomics(D6,$B$1,0,E6)/100</f>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.55" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1">
-        <f>_xll.xlquoteEconomics(D7,"lin",0)</f>
-        <v>-63862</v>
+        <f t="array" ref="B7">_xll.xlquoteEconomics(D7,$B$1,0,E7)</f>
+        <v>-80731</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.55" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1">
-        <f>_xll.xlquoteEconomics(D8,"lin",0)</f>
-        <v>-170541</v>
+        <f t="array" ref="B8">_xll.xlquoteEconomics(D8,$B$1,0,E8)</f>
+        <v>-214774</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.55" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3">
-        <f>_xll.xlquoteEconomics(D9,"pch",0)/100</f>
-        <v>1.2694E-2</v>
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" cm="1">
+        <f t="array" ref="B9">_xll.xlquoteEconomics(D9,$B$1,0,E9)/_xll.xlquoteEconomics(D9,$B$1,-1,E9)-1</f>
+        <v>1.5701786805522477E-2</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.55" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="4">
-        <f>_xll.xlquoteDatasets(D10,0,1)</f>
-        <v>57.5</v>
+        <v>32</v>
+      </c>
+      <c r="B10" s="4" cm="1">
+        <f t="array" ref="B10">_xll.xlquoteDatasets(D10,0,1)</f>
+        <v>58.6</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.55" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="4">
-        <f>_xll.xlquoteDatasets(D11,0,1)</f>
-        <v>56.6</v>
+        <v>33</v>
+      </c>
+      <c r="B11" s="4" cm="1">
+        <f t="array" ref="B11">_xll.xlquoteDatasets(D11,0,1)</f>
+        <v>56.5</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:10" ht="14.55" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3">
-        <f>_xll.xlquoteEconomics(D12,"pc1",0)/100</f>
-        <v>1.62612E-2</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" cm="1">
+        <f t="array" ref="B12">_xll.xlquoteEconomics(D12,$B$1,0,E12)/_xll.xlquoteEconomics(D12,$B$1,-12,E12)-1</f>
+        <v>6.0407827806037373E-2</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.55" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="3">
-        <f>_xll.xlquoteEconomics(D13,"lin",0)/100</f>
-        <v>2.6000000000000002E-2</v>
+        <f t="array" ref="B13">_xll.xlquoteEconomics(D13,$B$1,0,E13)/100</f>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.55" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="3">
-        <f>_xll.xlquoteEconomics(D14,"pch",0)/100</f>
-        <v>4.4579999999999999E-4</v>
+        <v>36</v>
+      </c>
+      <c r="B14" s="3" cm="1">
+        <f t="array" ref="B14">_xll.xlquoteEconomics(D14,$B$1,0,E14)/_xll.xlquoteEconomics(D14,$B$1,-1,E14)-1</f>
+        <v>6.4506686276890601E-3</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.55" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="3">
-        <f>_xll.xlquoteEconomics(D15,"pch",0)/100</f>
-        <v>3.3641999999999999E-3</v>
+        <v>37</v>
+      </c>
+      <c r="B15" s="3" cm="1">
+        <f t="array" ref="B15">_xll.xlquoteEconomics(D15,$B$1,0,E15)/_xll.xlquoteEconomics(D15,$B$1,-1,E15)-1</f>
+        <v>9.5159319770221629E-3</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.55" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <f>_xll.xlquoteEconomics(D16,"pch",0)/100</f>
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" cm="1">
+        <f t="array" ref="B16">_xll.xlquoteEconomics(D16,$B$1,0,E16)/_xll.xlquoteEconomics(D16,$B$1,-1,E16)-1</f>
+        <v>5.6942139710403072E-3</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.55" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="3">
-        <f>_xll.xlquoteEconomics(D17,"pch",0)/100</f>
-        <v>2.9522999999999997E-3</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" cm="1">
+        <f t="array" ref="B17">_xll.xlquoteEconomics(D17,$B$1,0,E17)/_xll.xlquoteEconomics(D17,$B$1,-1,E17)-1</f>
+        <v>4.3565905195070309E-2</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.55" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="4">
-        <f>_xll.xlquoteEconomics(D18,"lin",0)</f>
-        <v>81.8</v>
+        <f t="array" ref="B18">_xll.xlquoteEconomics(D18,$B$1,0,E18)</f>
+        <v>67.2</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.55" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
-        <f>_xll.xlquoteEconomics(D19,"lin",0)*1000</f>
-        <v>1530000</v>
+        <f t="array" ref="B19">_xll.xlquoteEconomics(D19,$B$1,0,E19)*1000</f>
+        <v>1638000</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.55" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1">
-        <f>_xll.xlquoteEconomics(D20,"lin",0)</f>
-        <v>6850000</v>
+        <f t="array" ref="B20">_xll.xlquoteEconomics(D20,$B$1,0,E20)</f>
+        <v>6500000</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="4">
-        <f>_xll.xlquoteEconomics(D21,"lin",0)</f>
-        <v>231.21520447347601</v>
+        <v>47</v>
+      </c>
+      <c r="B21" s="4" cm="1">
+        <f t="array" ref="B21">_xll.xlquoteEconomics(D21,$B$1,0,E21)</f>
+        <v>367.2</v>
       </c>
       <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.55" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>43</v>
       </c>
-      <c r="E21" t="s">
-        <v>23</v>
+      <c r="B22" s="4">
+        <f t="array" ref="B22">_xll.xlquoteEconomics(D22,$B$1,0,E22)</f>
+        <v>286.94154996649297</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B19" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Examples/Economics.xlsx
+++ b/Examples/Economics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\others\Data\XLQuote\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C58307-E6BD-4AE1-BD1D-6FCB7D1DF338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A77A71-7547-41C9-BCEF-4BCC250C62A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,9 +188,6 @@
     <t>Case Shiller 20</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>HOUUS</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>House Price Index</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -273,6 +273,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
+<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <volType type="realTimeData">
+    <main first="rtdsrv_9f676fd65e574562a71a5d5fe1052905">
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>36144e4d-6e07-46ba-92a7-3c771b2151bd</stp>
+        <tr r="B3" s="1"/>
+      </tp>
+    </main>
+  </volType>
+</volTypes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -614,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -629,7 +644,7 @@
       </c>
       <c r="B2" s="2" cm="1">
         <f t="array" ref="B2">(1+_xll.xlquoteEconomics(D2,$B$1,0,E2)/_xll.xlquoteEconomics(D2,$B$1,-1,E2)-1)^4-1</f>
-        <v>6.9869910447080352E-2</v>
+        <v>2.566653132516139E-2</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s">
@@ -647,7 +662,7 @@
       </c>
       <c r="B3" s="2" cm="1">
         <f t="array" ref="B3">_xll.xlquoteEconomics(D3,$B$1,0,E3)/_xll.xlquoteEconomics(D3,$B$1,-4,E3)-1</f>
-        <v>5.5562997388396207E-2</v>
+        <v>1.7746871612355664E-2</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s">
@@ -664,7 +679,7 @@
       </c>
       <c r="B4" s="1" cm="1">
         <f t="array" ref="B4">(_xll.xlquoteEconomics(D4,$B$1,0,E4)-_xll.xlquoteEconomics(D4,$B$1,-1,E4))*1000</f>
-        <v>474559.00000000838</v>
+        <v>128224.99999999127</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" t="s">
@@ -680,7 +695,7 @@
       </c>
       <c r="B5" s="1" cm="1">
         <f t="array" ref="B5">(_xll.xlquoteEconomics(D5,$B$1,0,E5)-_xll.xlquoteEconomics(D5,$B$1,-1,E5))*1000</f>
-        <v>678000</v>
+        <v>261000</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
@@ -696,7 +711,7 @@
       </c>
       <c r="B6" s="3">
         <f t="array" ref="B6">_xll.xlquoteEconomics(D6,$B$1,0,E6)/100</f>
-        <v>3.7999999999999999E-2</v>
+        <v>3.7000000000000005E-2</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" t="s">
@@ -712,7 +727,7 @@
       </c>
       <c r="B7" s="1">
         <f t="array" ref="B7">_xll.xlquoteEconomics(D7,$B$1,0,E7)</f>
-        <v>-80731</v>
+        <v>-73282</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" t="s">
@@ -728,7 +743,7 @@
       </c>
       <c r="B8" s="1">
         <f t="array" ref="B8">_xll.xlquoteEconomics(D8,$B$1,0,E8)</f>
-        <v>-214774</v>
+        <v>-251090</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" t="s">
@@ -744,7 +759,7 @@
       </c>
       <c r="B9" s="2" cm="1">
         <f t="array" ref="B9">_xll.xlquoteEconomics(D9,$B$1,0,E9)/_xll.xlquoteEconomics(D9,$B$1,-1,E9)-1</f>
-        <v>1.5701786805522477E-2</v>
+        <v>3.9037251543778684E-3</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" t="s">
@@ -792,7 +807,7 @@
       </c>
       <c r="B12" s="3" cm="1">
         <f t="array" ref="B12">_xll.xlquoteEconomics(D12,$B$1,0,E12)/_xll.xlquoteEconomics(D12,$B$1,-12,E12)-1</f>
-        <v>6.0407827806037373E-2</v>
+        <v>6.3065973269910147E-2</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" t="s">
@@ -808,7 +823,7 @@
       </c>
       <c r="B13" s="3">
         <f t="array" ref="B13">_xll.xlquoteEconomics(D13,$B$1,0,E13)/100</f>
-        <v>4.9000000000000002E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" t="s">
@@ -824,7 +839,7 @@
       </c>
       <c r="B14" s="3" cm="1">
         <f t="array" ref="B14">_xll.xlquoteEconomics(D14,$B$1,0,E14)/_xll.xlquoteEconomics(D14,$B$1,-1,E14)-1</f>
-        <v>6.4506686276890601E-3</v>
+        <v>4.383999245183734E-3</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" t="s">
@@ -840,7 +855,7 @@
       </c>
       <c r="B15" s="3" cm="1">
         <f t="array" ref="B15">_xll.xlquoteEconomics(D15,$B$1,0,E15)/_xll.xlquoteEconomics(D15,$B$1,-1,E15)-1</f>
-        <v>9.5159319770221629E-3</v>
+        <v>2.2487952882384032E-3</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" t="s">
@@ -856,7 +871,7 @@
       </c>
       <c r="B16" s="3" cm="1">
         <f t="array" ref="B16">_xll.xlquoteEconomics(D16,$B$1,0,E16)/_xll.xlquoteEconomics(D16,$B$1,-1,E16)-1</f>
-        <v>5.6942139710403072E-3</v>
+        <v>3.3309079149486109E-3</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" t="s">
@@ -872,7 +887,7 @@
       </c>
       <c r="B17" s="3" cm="1">
         <f t="array" ref="B17">_xll.xlquoteEconomics(D17,$B$1,0,E17)/_xll.xlquoteEconomics(D17,$B$1,-1,E17)-1</f>
-        <v>4.3565905195070309E-2</v>
+        <v>-8.0036166970853806E-4</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" t="s">
@@ -888,7 +903,7 @@
       </c>
       <c r="B18" s="4">
         <f t="array" ref="B18">_xll.xlquoteEconomics(D18,$B$1,0,E18)</f>
-        <v>67.2</v>
+        <v>58.6</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" t="s">
@@ -904,7 +919,7 @@
       </c>
       <c r="B19" s="1">
         <f t="array" ref="B19">_xll.xlquoteEconomics(D19,$B$1,0,E19)*1000</f>
-        <v>1638000</v>
+        <v>1439000</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" t="s">
@@ -920,7 +935,7 @@
       </c>
       <c r="B20" s="1">
         <f t="array" ref="B20">_xll.xlquoteEconomics(D20,$B$1,0,E20)</f>
-        <v>6500000</v>
+        <v>4710000</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" t="s">
@@ -932,17 +947,17 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="4" cm="1">
         <f t="array" ref="B21">_xll.xlquoteEconomics(D21,$B$1,0,E21)</f>
-        <v>367.2</v>
+        <v>392</v>
       </c>
       <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
         <v>45</v>
-      </c>
-      <c r="E21" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.55" x14ac:dyDescent="0.45">
@@ -951,7 +966,7 @@
       </c>
       <c r="B22" s="4">
         <f t="array" ref="B22">_xll.xlquoteEconomics(D22,$B$1,0,E22)</f>
-        <v>286.94154996649297</v>
+        <v>309.867938030635</v>
       </c>
       <c r="D22" t="s">
         <v>42</v>

--- a/Examples/Economics.xlsx
+++ b/Examples/Economics.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A77A71-7547-41C9-BCEF-4BCC250C62A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0E9B58-8C76-46B9-B9EA-C445AD5353F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Economics" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -25,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -54,150 +58,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Symbol</t>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Series ID</t>
+  </si>
+  <si>
+    <t>US GDP QoQ</t>
   </si>
   <si>
     <t>GDPC1</t>
   </si>
   <si>
-    <t>US GDP QoQ</t>
-  </si>
-  <si>
     <t>US GDP YoY</t>
   </si>
   <si>
+    <t>ADP Employment</t>
+  </si>
+  <si>
+    <t>NPPTTL</t>
+  </si>
+  <si>
+    <t>Non Farm Payrolls</t>
+  </si>
+  <si>
     <t>PAYEMS</t>
   </si>
   <si>
-    <t>Non Farm Payrolls</t>
+    <t>Unemployment Rate</t>
   </si>
   <si>
     <t>UNRATE</t>
   </si>
   <si>
-    <t>Unemployment Rate</t>
+    <t>Balance of Trade</t>
+  </si>
+  <si>
+    <t>BOPGSTB</t>
+  </si>
+  <si>
+    <t>Current Account</t>
+  </si>
+  <si>
+    <t>IEABC</t>
+  </si>
+  <si>
+    <t>Durable Goods Orders MoM</t>
   </si>
   <si>
     <t>DGORDER</t>
   </si>
   <si>
-    <t>Durable Goods Orders MoM</t>
+    <t>Core Inflation</t>
   </si>
   <si>
     <t>CPILFESL</t>
   </si>
   <si>
-    <t>Core Inflation</t>
+    <t>Inflation Expectation</t>
+  </si>
+  <si>
+    <t>MICH</t>
+  </si>
+  <si>
+    <t>CPI MoM</t>
+  </si>
+  <si>
+    <t>CPIAUCSL</t>
+  </si>
+  <si>
+    <t>PPI MoM</t>
+  </si>
+  <si>
+    <t>PPIFIS</t>
+  </si>
+  <si>
+    <t>PCE MoM</t>
   </si>
   <si>
     <t>PCEPI</t>
   </si>
   <si>
-    <t>PCE MoM</t>
+    <t>Retail Sales MoM</t>
   </si>
   <si>
     <t>RSXFS</t>
   </si>
   <si>
-    <t>Retail Sales MoM</t>
+    <t>Consumer Confidence</t>
+  </si>
+  <si>
+    <t>UMCSENT</t>
+  </si>
+  <si>
+    <t>Housing Starts</t>
   </si>
   <si>
     <t>HOUST</t>
   </si>
   <si>
-    <t>Housing Starts</t>
+    <t>Existing Home Sales</t>
   </si>
   <si>
     <t>EXHOSLUSM495S</t>
   </si>
   <si>
-    <t>Existing Home Sales</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>FRED</t>
-  </si>
-  <si>
-    <t>NPPTTL</t>
-  </si>
-  <si>
-    <t>ADP Employment</t>
-  </si>
-  <si>
-    <t>BOPGSTB</t>
-  </si>
-  <si>
-    <t>IEABC</t>
-  </si>
-  <si>
-    <t>Balance of Trade</t>
-  </si>
-  <si>
-    <t>Current Account</t>
-  </si>
-  <si>
-    <t>ISM/MAN_PMI</t>
-  </si>
-  <si>
-    <t>ISM/NONMAN_NMI</t>
-  </si>
-  <si>
-    <t>Quandl</t>
-  </si>
-  <si>
-    <t>Manufacturing PMI</t>
-  </si>
-  <si>
-    <t>Non-Manufacturing PMI</t>
-  </si>
-  <si>
-    <t>MICH</t>
-  </si>
-  <si>
-    <t>Inflation Expectation</t>
-  </si>
-  <si>
-    <t>CPI MoM</t>
-  </si>
-  <si>
-    <t>PPI MoM</t>
-  </si>
-  <si>
-    <t>CPIAUCSL</t>
-  </si>
-  <si>
-    <t>PPIFIS</t>
-  </si>
-  <si>
-    <t>UMCSENT</t>
-  </si>
-  <si>
-    <t>Consumer Confidence</t>
+    <t>Case Shiller 20</t>
   </si>
   <si>
     <t>SPCS20RSA</t>
-  </si>
-  <si>
-    <t>Case Shiller 20</t>
-  </si>
-  <si>
-    <t>HOUUS</t>
-  </si>
-  <si>
-    <t>Econdb</t>
-  </si>
-  <si>
-    <t>House Price Index</t>
-  </si>
-  <si>
-    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -275,25 +249,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
-<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <volType type="realTimeData">
-    <main first="rtdsrv_9f676fd65e574562a71a5d5fe1052905">
-      <tp>
-        <v>-2</v>
-        <stp/>
-        <stp>36144e4d-6e07-46ba-92a7-3c771b2151bd</stp>
-        <tr r="B3" s="1"/>
-      </tp>
-    </main>
-  </volType>
-</volTypes>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -331,9 +290,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -366,26 +325,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -418,26 +360,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -611,375 +536,270 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.59765625" customWidth="1"/>
-    <col min="4" max="4" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.54296875" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.55" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="14.55" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" cm="1">
-        <f t="array" ref="B2">(1+_xll.xlquoteEconomics(D2,$B$1,0,E2)/_xll.xlquoteEconomics(D2,$B$1,-1,E2)-1)^4-1</f>
-        <v>2.566653132516139E-2</v>
+        <f t="array" ref="B2">_xll.xlquoteEconomics(D2,$B$1,0,"pc1",,,1)/100</f>
+        <v>2.7187700000000002E-2</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="14.55" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" cm="1">
-        <f t="array" ref="B3">_xll.xlquoteEconomics(D3,$B$1,0,E3)/_xll.xlquoteEconomics(D3,$B$1,-4,E3)-1</f>
-        <v>1.7746871612355664E-2</v>
+        <f t="array" ref="B3">_xll.xlquoteEconomics(D3,$B$1,0,"pca",,,1)/100</f>
+        <v>3.07283E-2</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" ht="14.55" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" cm="1">
-        <f t="array" ref="B4">(_xll.xlquoteEconomics(D4,$B$1,0,E4)-_xll.xlquoteEconomics(D4,$B$1,-1,E4))*1000</f>
-        <v>128224.99999999127</v>
+        <f t="array" ref="B4">_xll.xlquoteEconomics(D4,$B$1,0,"chg",,,1)*1000</f>
+        <v>128225</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.55" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" cm="1">
-        <f t="array" ref="B5">(_xll.xlquoteEconomics(D5,$B$1,0,E5)-_xll.xlquoteEconomics(D5,$B$1,-1,E5))*1000</f>
-        <v>261000</v>
+        <f t="array" ref="B5">_xll.xlquoteEconomics(D5,$B$1,0,"chg",,,1)*1000</f>
+        <v>256000</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.55" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3">
-        <f t="array" ref="B6">_xll.xlquoteEconomics(D6,$B$1,0,E6)/100</f>
-        <v>3.7000000000000005E-2</v>
+        <f t="array" ref="B6">_xll.xlquoteEconomics(D6,$B$1,0)/100</f>
+        <v>4.0999999999999995E-2</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.55" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
-        <f t="array" ref="B7">_xll.xlquoteEconomics(D7,$B$1,0,E7)</f>
-        <v>-73282</v>
+        <f t="array" ref="B7">_xll.xlquoteEconomics(D7,$B$1,0)</f>
+        <v>-78193</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.55" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1">
-        <f t="array" ref="B8">_xll.xlquoteEconomics(D8,$B$1,0,E8)</f>
-        <v>-251090</v>
+        <f t="array" ref="B8">_xll.xlquoteEconomics(D8,$B$1,0)</f>
+        <v>-310948</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.55" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" cm="1">
-        <f t="array" ref="B9">_xll.xlquoteEconomics(D9,$B$1,0,E9)/_xll.xlquoteEconomics(D9,$B$1,-1,E9)-1</f>
-        <v>3.9037251543778684E-3</v>
+        <f t="array" ref="B9">_xll.xlquoteEconomics(D9,$B$1,0,"pch",,,1)/100</f>
+        <v>-1.1574500000000001E-2</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.55" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="4" cm="1">
-        <f t="array" ref="B10">_xll.xlquoteDatasets(D10,0,1)</f>
-        <v>58.6</v>
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" cm="1">
+        <f t="array" ref="B10">_xll.xlquoteEconomics(D10,$B$1,0,"pc1")/100</f>
+        <v>3.2483100000000001E-2</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.55" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="4" cm="1">
-        <f t="array" ref="B11">_xll.xlquoteDatasets(D11,0,1)</f>
-        <v>56.5</v>
+        <v>20</v>
+      </c>
+      <c r="B11" s="3">
+        <f t="array" ref="B11">_xll.xlquoteEconomics(D11,$B$1,0)/100</f>
+        <v>2.6000000000000002E-2</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.55" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3" cm="1">
-        <f t="array" ref="B12">_xll.xlquoteEconomics(D12,$B$1,0,E12)/_xll.xlquoteEconomics(D12,$B$1,-12,E12)-1</f>
-        <v>6.3065973269910147E-2</v>
+        <f t="array" ref="B12">_xll.xlquoteEconomics(D12,$B$1,0,"pch")/100</f>
+        <v>3.9312000000000001E-3</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.55" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="3">
-        <f t="array" ref="B13">_xll.xlquoteEconomics(D13,$B$1,0,E13)/100</f>
-        <v>4.7E-2</v>
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" cm="1">
+        <f t="array" ref="B13">_xll.xlquoteEconomics(D13,$B$1,0,"pch")/100</f>
+        <v>2.1908000000000001E-3</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="14.55" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3" cm="1">
-        <f t="array" ref="B14">_xll.xlquoteEconomics(D14,$B$1,0,E14)/_xll.xlquoteEconomics(D14,$B$1,-1,E14)-1</f>
-        <v>4.383999245183734E-3</v>
+        <f t="array" ref="B14">_xll.xlquoteEconomics(D14,$B$1,0,"pch")/100</f>
+        <v>1.2800000000000001E-3</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="14.55" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B15" s="3" cm="1">
-        <f t="array" ref="B15">_xll.xlquoteEconomics(D15,$B$1,0,E15)/_xll.xlquoteEconomics(D15,$B$1,-1,E15)-1</f>
-        <v>2.2487952882384032E-3</v>
+        <f t="array" ref="B15">_xll.xlquoteEconomics(D15,$B$1,0,"pch")/100</f>
+        <v>5.6018000000000005E-3</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="14.55" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" cm="1">
-        <f t="array" ref="B16">_xll.xlquoteEconomics(D16,$B$1,0,E16)/_xll.xlquoteEconomics(D16,$B$1,-1,E16)-1</f>
-        <v>3.3309079149486109E-3</v>
+        <v>30</v>
+      </c>
+      <c r="B16" s="4">
+        <f t="array" ref="B16">_xll.xlquoteEconomics(D16,$B$1,0)</f>
+        <v>71.8</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.55" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" cm="1">
-        <f t="array" ref="B17">_xll.xlquoteEconomics(D17,$B$1,0,E17)/_xll.xlquoteEconomics(D17,$B$1,-1,E17)-1</f>
-        <v>-8.0036166970853806E-4</v>
-      </c>
-      <c r="C17" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="array" ref="B17">_xll.xlquoteEconomics(D17,$B$1,0)*1000</f>
+        <v>1499000</v>
+      </c>
+      <c r="C17" s="1"/>
       <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.55" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="4">
-        <f t="array" ref="B18">_xll.xlquoteEconomics(D18,$B$1,0,E18)</f>
-        <v>58.6</v>
-      </c>
-      <c r="C18" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="array" ref="B18">_xll.xlquoteEconomics(D18,$B$1,0)</f>
+        <v>4150000</v>
+      </c>
+      <c r="C18" s="1"/>
       <c r="D18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.55" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <f t="array" ref="B19">_xll.xlquoteEconomics(D19,$B$1,0,E19)*1000</f>
-        <v>1439000</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="B19" s="4">
+        <f t="array" ref="B19">_xll.xlquoteEconomics(D19,$B$1,0)</f>
+        <v>334.28804517947003</v>
+      </c>
       <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.55" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1">
-        <f t="array" ref="B20">_xll.xlquoteEconomics(D20,$B$1,0,E20)</f>
-        <v>4710000</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="4" cm="1">
-        <f t="array" ref="B21">_xll.xlquoteEconomics(D21,$B$1,0,E21)</f>
-        <v>392</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.55" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="4">
-        <f t="array" ref="B22">_xll.xlquoteEconomics(D22,$B$1,0,E22)</f>
-        <v>309.867938030635</v>
-      </c>
-      <c r="D22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B19" formula="1"/>
+    <ignoredError sqref="B17" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Examples/Economics.xlsx
+++ b/Examples/Economics.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\others\Data\XLQuote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0E9B58-8C76-46B9-B9EA-C445AD5353F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6298DB0A-76A0-4183-8649-13AEB6EA8F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Economics" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -58,120 +55,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>GDPC1</t>
+  </si>
+  <si>
+    <t>US GDP QoQ</t>
+  </si>
+  <si>
+    <t>US GDP YoY</t>
+  </si>
+  <si>
+    <t>PAYEMS</t>
+  </si>
+  <si>
+    <t>Non Farm Payrolls</t>
+  </si>
+  <si>
+    <t>UNRATE</t>
+  </si>
+  <si>
+    <t>Unemployment Rate</t>
+  </si>
+  <si>
+    <t>DGORDER</t>
+  </si>
+  <si>
+    <t>Durable Goods Orders MoM</t>
+  </si>
+  <si>
+    <t>CPILFESL</t>
+  </si>
+  <si>
+    <t>Core Inflation</t>
+  </si>
+  <si>
+    <t>PCEPI</t>
+  </si>
+  <si>
+    <t>PCE MoM</t>
+  </si>
+  <si>
+    <t>RSXFS</t>
+  </si>
+  <si>
+    <t>Retail Sales MoM</t>
+  </si>
+  <si>
+    <t>HOUST</t>
+  </si>
+  <si>
+    <t>Housing Starts</t>
+  </si>
+  <si>
+    <t>EXHOSLUSM495S</t>
+  </si>
+  <si>
+    <t>Existing Home Sales</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>FRED</t>
+  </si>
+  <si>
+    <t>NPPTTL</t>
+  </si>
+  <si>
+    <t>ADP Employment</t>
+  </si>
+  <si>
+    <t>BOPGSTB</t>
+  </si>
+  <si>
+    <t>IEABC</t>
+  </si>
+  <si>
+    <t>Balance of Trade</t>
+  </si>
+  <si>
+    <t>Current Account</t>
+  </si>
+  <si>
+    <t>MICH</t>
+  </si>
+  <si>
+    <t>Inflation Expectation</t>
+  </si>
+  <si>
+    <t>CPI MoM</t>
+  </si>
+  <si>
+    <t>PPI MoM</t>
+  </si>
+  <si>
+    <t>CPIAUCSL</t>
+  </si>
+  <si>
+    <t>PPIFIS</t>
+  </si>
+  <si>
+    <t>UMCSENT</t>
+  </si>
+  <si>
+    <t>Consumer Confidence</t>
+  </si>
+  <si>
+    <t>SPCS20RSA</t>
+  </si>
+  <si>
+    <t>Case Shiller 20</t>
+  </si>
+  <si>
+    <t>House Price Index</t>
+  </si>
+  <si>
     <t>Value</t>
   </si>
   <si>
-    <t>Series ID</t>
-  </si>
-  <si>
-    <t>US GDP QoQ</t>
-  </si>
-  <si>
-    <t>GDPC1</t>
-  </si>
-  <si>
-    <t>US GDP YoY</t>
-  </si>
-  <si>
-    <t>ADP Employment</t>
-  </si>
-  <si>
-    <t>NPPTTL</t>
-  </si>
-  <si>
-    <t>Non Farm Payrolls</t>
-  </si>
-  <si>
-    <t>PAYEMS</t>
-  </si>
-  <si>
-    <t>Unemployment Rate</t>
-  </si>
-  <si>
-    <t>UNRATE</t>
-  </si>
-  <si>
-    <t>Balance of Trade</t>
-  </si>
-  <si>
-    <t>BOPGSTB</t>
-  </si>
-  <si>
-    <t>Current Account</t>
-  </si>
-  <si>
-    <t>IEABC</t>
-  </si>
-  <si>
-    <t>Durable Goods Orders MoM</t>
-  </si>
-  <si>
-    <t>DGORDER</t>
-  </si>
-  <si>
-    <t>Core Inflation</t>
-  </si>
-  <si>
-    <t>CPILFESL</t>
-  </si>
-  <si>
-    <t>Inflation Expectation</t>
-  </si>
-  <si>
-    <t>MICH</t>
-  </si>
-  <si>
-    <t>CPI MoM</t>
-  </si>
-  <si>
-    <t>CPIAUCSL</t>
-  </si>
-  <si>
-    <t>PPI MoM</t>
-  </si>
-  <si>
-    <t>PPIFIS</t>
-  </si>
-  <si>
-    <t>PCE MoM</t>
-  </si>
-  <si>
-    <t>PCEPI</t>
-  </si>
-  <si>
-    <t>Retail Sales MoM</t>
-  </si>
-  <si>
-    <t>RSXFS</t>
-  </si>
-  <si>
-    <t>Consumer Confidence</t>
-  </si>
-  <si>
-    <t>UMCSENT</t>
-  </si>
-  <si>
-    <t>Housing Starts</t>
-  </si>
-  <si>
-    <t>HOUST</t>
-  </si>
-  <si>
-    <t>Existing Home Sales</t>
-  </si>
-  <si>
-    <t>EXHOSLUSM495S</t>
-  </si>
-  <si>
-    <t>Case Shiller 20</t>
-  </si>
-  <si>
-    <t>SPCS20RSA</t>
+    <t>USSTHPI</t>
   </si>
 </sst>
 </file>
@@ -183,7 +192,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode=";;;&quot;Value&quot;"/>
+    <numFmt numFmtId="167" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -536,263 +545,336 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.54296875" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.59765625" customWidth="1"/>
+    <col min="4" max="4" width="14.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" cm="1">
-        <f t="array" ref="B2">_xll.xlquoteEconomics(D2,$B$1,0,"pc1",,,1)/100</f>
-        <v>2.7187700000000002E-2</v>
+        <f t="array" ref="B2">(1+_xll.xlquoteEconomics(D2,$B$1,0,E2)/_xll.xlquoteEconomics(D2,$B$1,-1,E2)-1)^4-1</f>
+        <v>-2.4277904569368625E-3</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
       <c r="B3" s="2" cm="1">
-        <f t="array" ref="B3">_xll.xlquoteEconomics(D3,$B$1,0,"pca",,,1)/100</f>
-        <v>3.07283E-2</v>
+        <f t="array" ref="B3">_xll.xlquoteEconomics(D3,$B$1,0,E3)/_xll.xlquoteEconomics(D3,$B$1,-4,E3)-1</f>
+        <v>2.0582604540863469E-2</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" cm="1">
-        <f t="array" ref="B4">_xll.xlquoteEconomics(D4,$B$1,0,"chg",,,1)*1000</f>
-        <v>128225</v>
+        <f t="array" ref="B4">(_xll.xlquoteEconomics(D4,$B$1,0,E4)-_xll.xlquoteEconomics(D4,$B$1,-1,E4))*1000</f>
+        <v>128224.99999999127</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" cm="1">
-        <f t="array" ref="B5">_xll.xlquoteEconomics(D5,$B$1,0,"chg",,,1)*1000</f>
-        <v>256000</v>
+        <f t="array" ref="B5">(_xll.xlquoteEconomics(D5,$B$1,0,E5)-_xll.xlquoteEconomics(D5,$B$1,-1,E5))*1000</f>
+        <v>177000</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3">
-        <f t="array" ref="B6">_xll.xlquoteEconomics(D6,$B$1,0)/100</f>
-        <v>4.0999999999999995E-2</v>
+        <f t="array" ref="B6">_xll.xlquoteEconomics(D6,$B$1,0,E6)/100</f>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1">
-        <f t="array" ref="B7">_xll.xlquoteEconomics(D7,$B$1,0)</f>
-        <v>-78193</v>
+        <f t="array" ref="B7">_xll.xlquoteEconomics(D7,$B$1,0,E7)</f>
+        <v>-140498</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1">
-        <f t="array" ref="B8">_xll.xlquoteEconomics(D8,$B$1,0)</f>
-        <v>-310948</v>
+        <f t="array" ref="B8">_xll.xlquoteEconomics(D8,$B$1,0,E8)</f>
+        <v>-303942</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" cm="1">
-        <f t="array" ref="B9">_xll.xlquoteEconomics(D9,$B$1,0,"pch",,,1)/100</f>
-        <v>-1.1574500000000001E-2</v>
+        <f t="array" ref="B9">_xll.xlquoteEconomics(D9,$B$1,0,E9)/_xll.xlquoteEconomics(D9,$B$1,-1,E9)-1</f>
+        <v>-6.3017250921050594E-2</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3" cm="1">
-        <f t="array" ref="B10">_xll.xlquoteEconomics(D10,$B$1,0,"pc1")/100</f>
-        <v>3.2483100000000001E-2</v>
+        <f t="array" ref="B10">_xll.xlquoteEconomics(D10,$B$1,0,E10)/_xll.xlquoteEconomics(D10,$B$1,-12,E10)-1</f>
+        <v>2.7815211778485782E-2</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3">
-        <f t="array" ref="B11">_xll.xlquoteEconomics(D11,$B$1,0)/100</f>
-        <v>2.6000000000000002E-2</v>
+        <f t="array" ref="B11">_xll.xlquoteEconomics(D11,$B$1,0,E11)/100</f>
+        <v>0.05</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B12" s="3" cm="1">
-        <f t="array" ref="B12">_xll.xlquoteEconomics(D12,$B$1,0,"pch")/100</f>
-        <v>3.9312000000000001E-3</v>
+        <f t="array" ref="B12">_xll.xlquoteEconomics(D12,$B$1,0,E12)/_xll.xlquoteEconomics(D12,$B$1,-1,E12)-1</f>
+        <v>2.2089075919466961E-3</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B13" s="3" cm="1">
-        <f t="array" ref="B13">_xll.xlquoteEconomics(D13,$B$1,0,"pch")/100</f>
-        <v>2.1908000000000001E-3</v>
+        <f t="array" ref="B13">_xll.xlquoteEconomics(D13,$B$1,0,E13)/_xll.xlquoteEconomics(D13,$B$1,-1,E13)-1</f>
+        <v>-4.6975885262916517E-3</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3" cm="1">
-        <f t="array" ref="B14">_xll.xlquoteEconomics(D14,$B$1,0,"pch")/100</f>
-        <v>1.2800000000000001E-3</v>
+        <f t="array" ref="B14">_xll.xlquoteEconomics(D14,$B$1,0,E14)/_xll.xlquoteEconomics(D14,$B$1,-1,E14)-1</f>
+        <v>-4.4519350017491188E-4</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B15" s="3" cm="1">
-        <f t="array" ref="B15">_xll.xlquoteEconomics(D15,$B$1,0,"pch")/100</f>
-        <v>5.6018000000000005E-3</v>
+        <f t="array" ref="B15">_xll.xlquoteEconomics(D15,$B$1,0,E15)/_xll.xlquoteEconomics(D15,$B$1,-1,E15)-1</f>
+        <v>-1.1921046239596889E-3</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B16" s="4">
-        <f t="array" ref="B16">_xll.xlquoteEconomics(D16,$B$1,0)</f>
-        <v>71.8</v>
+        <f t="array" ref="B16">_xll.xlquoteEconomics(D16,$B$1,0,E16)</f>
+        <v>57</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1">
-        <f t="array" ref="B17">_xll.xlquoteEconomics(D17,$B$1,0)*1000</f>
-        <v>1499000</v>
+        <f t="array" ref="B17">_xll.xlquoteEconomics(D17,$B$1,0,E17)*1000</f>
+        <v>1361000</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
-        <f t="array" ref="B18">_xll.xlquoteEconomics(D18,$B$1,0)</f>
-        <v>4150000</v>
+        <f t="array" ref="B18">_xll.xlquoteEconomics(D18,$B$1,0,E18)</f>
+        <v>4000000</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="4">
-        <f t="array" ref="B19">_xll.xlquoteEconomics(D19,$B$1,0)</f>
-        <v>334.28804517947003</v>
-      </c>
-      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="4" cm="1">
+        <f t="array" ref="B19">_xll.xlquoteEconomics(D19,$B$1,0,E19)</f>
+        <v>693.76</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="4">
+        <f t="array" ref="B20">_xll.xlquoteEconomics(D20,$B$1,0,E20)</f>
+        <v>339.87749985207699</v>
+      </c>
+      <c r="D20" t="s">
         <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
